--- a/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/电力、热力及水的生产和供应业.xlsx
+++ b/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/电力、热力及水的生产和供应业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,617 +558,376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>543024.1</v>
+        <v>1568149.35356877</v>
       </c>
       <c r="C2" t="n">
-        <v>328433.88</v>
+        <v>11015831.2699519</v>
       </c>
       <c r="D2" t="n">
-        <v>6455.56</v>
+        <v>11154.5263398727</v>
       </c>
       <c r="E2" t="n">
-        <v>530640</v>
+        <v>2300278.68564193</v>
       </c>
       <c r="F2" t="n">
-        <v>172100</v>
+        <v>181219.426672925</v>
       </c>
       <c r="G2" t="n">
-        <v>869258.22</v>
+        <v>2267060.60116116</v>
       </c>
       <c r="H2" t="n">
-        <v>4677723</v>
+        <v>5238814.53669359</v>
       </c>
       <c r="I2" t="n">
-        <v>9882520</v>
+        <v>39387614.2703479</v>
       </c>
       <c r="J2" t="n">
-        <v>11573106.1</v>
+        <v>12949655.7136894</v>
       </c>
       <c r="K2" t="n">
-        <v>50622180.42</v>
+        <v>355247207.036789</v>
       </c>
       <c r="L2" t="n">
-        <v>8405424.756461799</v>
+        <v>39457816.0360184</v>
       </c>
       <c r="M2" t="n">
-        <v>10595007.8113112</v>
+        <v>45822886.4717427</v>
       </c>
       <c r="N2" t="n">
-        <v>34609970.0557963</v>
+        <v>122059732.762601</v>
       </c>
       <c r="O2" t="n">
-        <v>85232150.47579651</v>
+        <v>477306939.799391</v>
       </c>
       <c r="P2" t="n">
-        <v>5640620</v>
+        <v>156901774.20985</v>
       </c>
       <c r="Q2" t="n">
-        <v>7609706.1257704</v>
+        <v>21644864.6492165</v>
       </c>
       <c r="R2" t="n">
-        <v>7999831.36225293</v>
+        <v>15134165.6056236</v>
       </c>
       <c r="S2" t="n">
-        <v>192045.5</v>
+        <v>1753268.39548631</v>
       </c>
       <c r="T2" t="n">
-        <v>2655863.43</v>
+        <v>8578194.350889729</v>
       </c>
       <c r="U2" t="n">
-        <v>11167801.63</v>
+        <v>87924649.1804903</v>
       </c>
       <c r="V2" t="n">
-        <v>352935</v>
+        <v>3640824.48645069</v>
       </c>
       <c r="W2" t="n">
-        <v>1756350</v>
+        <v>19132470.5031306</v>
       </c>
       <c r="X2" t="n">
-        <v>273304</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
+        <v>993096.584068839</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1403150.94235506</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>331806.493569729</v>
+        <v>2080903.42213102</v>
       </c>
       <c r="C3" t="n">
-        <v>1508736.1872679</v>
+        <v>7107024.45296628</v>
       </c>
       <c r="D3" t="n">
-        <v>19983.0539641157</v>
+        <v>56098.8290385246</v>
       </c>
       <c r="E3" t="n">
-        <v>760983.76752728</v>
+        <v>1733835.31907893</v>
       </c>
       <c r="F3" t="n">
-        <v>77804.7365056142</v>
+        <v>2061253.97573922</v>
       </c>
       <c r="G3" t="n">
-        <v>709478.24024015</v>
+        <v>1880337.14389394</v>
       </c>
       <c r="H3" t="n">
-        <v>3418920.74871341</v>
+        <v>6741294.44651545</v>
       </c>
       <c r="I3" t="n">
-        <v>7732293.05839282</v>
+        <v>36336283.5115626</v>
       </c>
       <c r="J3" t="n">
-        <v>3392373.25510822</v>
+        <v>19873766.4740041</v>
       </c>
       <c r="K3" t="n">
-        <v>42321966.8508497</v>
+        <v>370587467.334643</v>
       </c>
       <c r="L3" t="n">
-        <v>9820295.550233699</v>
+        <v>39918222.0003845</v>
       </c>
       <c r="M3" t="n">
-        <v>12057082.3777568</v>
+        <v>46573015.5678381</v>
       </c>
       <c r="N3" t="n">
-        <v>42459604.2408702</v>
+        <v>133356985.046793</v>
       </c>
       <c r="O3" t="n">
-        <v>84781571.09172</v>
+        <v>503944452.381436</v>
       </c>
       <c r="P3" t="n">
-        <v>4055204.61643049</v>
+        <v>163075515.908526</v>
       </c>
       <c r="Q3" t="n">
-        <v>8324571.56586998</v>
+        <v>21373796.3514843</v>
       </c>
       <c r="R3" t="n">
-        <v>12257654.7470098</v>
+        <v>25491951.1270858</v>
       </c>
       <c r="S3" t="n">
-        <v>221071.46585012</v>
+        <v>376064.284399377</v>
       </c>
       <c r="T3" t="n">
-        <v>3241726.59393937</v>
+        <v>8205567.58425617</v>
       </c>
       <c r="U3" t="n">
-        <v>13643671.734565</v>
+        <v>93540877.1452387</v>
       </c>
       <c r="V3" t="n">
-        <v>752453.07768179</v>
+        <v>812558.691853806</v>
       </c>
       <c r="W3" t="n">
-        <v>2274866.74696249</v>
+        <v>24553146.2837773</v>
       </c>
       <c r="X3" t="n">
-        <v>180593.074131258</v>
-      </c>
-      <c r="Y3" t="inlineStr"/>
+        <v>373322.180478969</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1779617.68118244</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>777938.701251494</v>
+        <v>3348049.79117432</v>
       </c>
       <c r="C4" t="n">
-        <v>5142457.19715972</v>
+        <v>11650840.7450846</v>
       </c>
       <c r="D4" t="n">
-        <v>67780.4783452383</v>
+        <v>97966.52827054499</v>
       </c>
       <c r="E4" t="n">
-        <v>1925655.20123866</v>
+        <v>2734677.75803789</v>
       </c>
       <c r="F4" t="n">
-        <v>249287.952356797</v>
+        <v>3034495.69606006</v>
       </c>
       <c r="G4" t="n">
-        <v>651544.771492705</v>
+        <v>3766859.58998488</v>
       </c>
       <c r="H4" t="n">
-        <v>7527973.94657065</v>
+        <v>11374039.7615847</v>
       </c>
       <c r="I4" t="n">
-        <v>23689828.9748169</v>
+        <v>47105626.8927576</v>
       </c>
       <c r="J4" t="n">
-        <v>11281332.8721666</v>
+        <v>19478168.8337417</v>
       </c>
       <c r="K4" t="n">
-        <v>126264042.724888</v>
+        <v>473270466.911936</v>
       </c>
       <c r="L4" t="n">
-        <v>15125189.2699045</v>
+        <v>39268100.4325273</v>
       </c>
       <c r="M4" t="n">
-        <v>22296952.5535441</v>
+        <v>41867997.5125314</v>
       </c>
       <c r="N4" t="n">
-        <v>67917822.293302</v>
+        <v>141830956.598061</v>
       </c>
       <c r="O4" t="n">
-        <v>194181865.01819</v>
+        <v>615101423.509997</v>
       </c>
       <c r="P4" t="n">
-        <v>15311704.9395148</v>
+        <v>237444237.194902</v>
       </c>
       <c r="Q4" t="n">
-        <v>14305721.9655298</v>
+        <v>14804804.485585</v>
       </c>
       <c r="R4" t="n">
-        <v>16189958.5043235</v>
+        <v>45890054.167417</v>
       </c>
       <c r="S4" t="n">
-        <v>564232.258269495</v>
+        <v>761932.687853842</v>
       </c>
       <c r="T4" t="n">
-        <v>8067394.85855291</v>
+        <v>12720592.9182812</v>
       </c>
       <c r="U4" t="n">
-        <v>44004051.243871</v>
+        <v>76935482.3662637</v>
       </c>
       <c r="V4" t="n">
-        <v>1935222.19279207</v>
+        <v>1194611.4752035</v>
       </c>
       <c r="W4" t="n">
-        <v>4562756.01639336</v>
+        <v>37956714.7683722</v>
       </c>
       <c r="X4" t="n">
-        <v>504881.120095422</v>
-      </c>
-      <c r="Y4" t="inlineStr"/>
+        <v>472073.381301108</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>3194096.52306248</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1069964.96962881</v>
+        <v>2713424.17872669</v>
       </c>
       <c r="C5" t="n">
-        <v>7636754.7269929</v>
+        <v>13996969.5405164</v>
       </c>
       <c r="D5" t="n">
-        <v>4388.00114932279</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1559539.92878013</v>
-      </c>
+        <v>65443.9575829175</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>110065.648745298</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1257014.52895819</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3306550.24906081</v>
-      </c>
+        <v>1999023.16660834</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>29694653.7524032</v>
+        <v>51677174.0960947</v>
       </c>
       <c r="J5" t="n">
-        <v>13218387.6629037</v>
+        <v>13084735.0349352</v>
       </c>
       <c r="K5" t="n">
-        <v>233069000.639285</v>
+        <v>431097570.216039</v>
       </c>
       <c r="L5" t="n">
-        <v>23423403.3706452</v>
+        <v>67025455.5333819</v>
       </c>
       <c r="M5" t="n">
-        <v>39861979.8975863</v>
+        <v>74806388.6270373</v>
       </c>
       <c r="N5" t="n">
-        <v>93579145.4633804</v>
+        <v>203888859.568783</v>
       </c>
       <c r="O5" t="n">
-        <v>326648146.102665</v>
+        <v>634986429.7848229</v>
       </c>
       <c r="P5" t="n">
-        <v>116257121.92673</v>
+        <v>173314032.260483</v>
       </c>
       <c r="Q5" t="n">
-        <v>12181448.3737188</v>
+        <v>30204141.4124653</v>
       </c>
       <c r="R5" t="n">
-        <v>18112313.8214301</v>
+        <v>31852873.9958988</v>
       </c>
       <c r="S5" t="n">
-        <v>1102422.77002798</v>
-      </c>
-      <c r="T5" t="n">
-        <v>5581515.43659475</v>
-      </c>
+        <v>1073786.55966829</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>36733026.8237914</v>
+        <v>108789111.517227</v>
       </c>
       <c r="V5" t="n">
-        <v>2078830.59456728</v>
-      </c>
-      <c r="W5" t="n">
-        <v>11833103.9659344</v>
-      </c>
+        <v>1146543.17973351</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>652207.155723763</v>
+        <v>1359518.29020318</v>
       </c>
       <c r="Y5" t="n">
-        <v>973452.497292796</v>
+        <v>4327406.8736109</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1568149.35356877</v>
+        <v>3909774.57205682</v>
       </c>
       <c r="C6" t="n">
-        <v>11015831.2699519</v>
+        <v>18619039.9607591</v>
       </c>
       <c r="D6" t="n">
-        <v>11154.5263398727</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2300278.68564193</v>
-      </c>
+        <v>103032.01886602</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>181219.426672925</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2267060.60116116</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5238814.53669359</v>
-      </c>
+        <v>2783830.77216304</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>39387614.2703479</v>
+        <v>63797987.7820032</v>
       </c>
       <c r="J6" t="n">
-        <v>12949655.7136894</v>
+        <v>15763105.0415924</v>
       </c>
       <c r="K6" t="n">
-        <v>355247207.036789</v>
+        <v>563032204.22535</v>
       </c>
       <c r="L6" t="n">
-        <v>39457816.0360184</v>
+        <v>77284425.1765708</v>
       </c>
       <c r="M6" t="n">
-        <v>45822886.4717427</v>
+        <v>110147887.399323</v>
       </c>
       <c r="N6" t="n">
-        <v>122059732.762601</v>
+        <v>258419918.779203</v>
       </c>
       <c r="O6" t="n">
-        <v>477306939.799391</v>
+        <v>821452123.004553</v>
       </c>
       <c r="P6" t="n">
-        <v>156901774.20985</v>
+        <v>230281651.394368</v>
       </c>
       <c r="Q6" t="n">
-        <v>21644864.6492165</v>
+        <v>23569375.2676357</v>
       </c>
       <c r="R6" t="n">
-        <v>15134165.6056236</v>
+        <v>47418230.9356728</v>
       </c>
       <c r="S6" t="n">
-        <v>1753268.39548631</v>
-      </c>
-      <c r="T6" t="n">
-        <v>8578194.350889729</v>
-      </c>
+        <v>1600254.53757568</v>
+      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>87924649.1804903</v>
+        <v>137059281.517302</v>
       </c>
       <c r="V6" t="n">
-        <v>3640824.48645069</v>
-      </c>
-      <c r="W6" t="n">
-        <v>19132470.5031306</v>
-      </c>
+        <v>1688433.55029963</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>993096.584068839</v>
+        <v>2021811.36057055</v>
       </c>
       <c r="Y6" t="n">
-        <v>1403150.94235506</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2080903.42213102</v>
-      </c>
-      <c r="C7" t="n">
-        <v>7107024.45296628</v>
-      </c>
-      <c r="D7" t="n">
-        <v>56098.8290385246</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1733835.31907893</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2061253.97573922</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1880337.14389394</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6741294.44651545</v>
-      </c>
-      <c r="I7" t="n">
-        <v>36336283.5115626</v>
-      </c>
-      <c r="J7" t="n">
-        <v>19873766.4740041</v>
-      </c>
-      <c r="K7" t="n">
-        <v>370587467.334643</v>
-      </c>
-      <c r="L7" t="n">
-        <v>39918222.0003845</v>
-      </c>
-      <c r="M7" t="n">
-        <v>46573015.5678381</v>
-      </c>
-      <c r="N7" t="n">
-        <v>133356985.046793</v>
-      </c>
-      <c r="O7" t="n">
-        <v>503944452.381436</v>
-      </c>
-      <c r="P7" t="n">
-        <v>163075515.908526</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>21373796.3514843</v>
-      </c>
-      <c r="R7" t="n">
-        <v>25491951.1270858</v>
-      </c>
-      <c r="S7" t="n">
-        <v>376064.284399377</v>
-      </c>
-      <c r="T7" t="n">
-        <v>8205567.58425617</v>
-      </c>
-      <c r="U7" t="n">
-        <v>93540877.1452387</v>
-      </c>
-      <c r="V7" t="n">
-        <v>812558.691853806</v>
-      </c>
-      <c r="W7" t="n">
-        <v>24553146.2837773</v>
-      </c>
-      <c r="X7" t="n">
-        <v>373322.180478969</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1779617.68118244</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3348049.79117432</v>
-      </c>
-      <c r="C8" t="n">
-        <v>11650840.7450846</v>
-      </c>
-      <c r="D8" t="n">
-        <v>97966.52827054499</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2734677.75803789</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3034495.69606006</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3766859.58998488</v>
-      </c>
-      <c r="H8" t="n">
-        <v>11374039.7615847</v>
-      </c>
-      <c r="I8" t="n">
-        <v>47105626.8927576</v>
-      </c>
-      <c r="J8" t="n">
-        <v>19478168.8337417</v>
-      </c>
-      <c r="K8" t="n">
-        <v>473270466.911936</v>
-      </c>
-      <c r="L8" t="n">
-        <v>39268100.4325273</v>
-      </c>
-      <c r="M8" t="n">
-        <v>41867997.5125314</v>
-      </c>
-      <c r="N8" t="n">
-        <v>141830956.598061</v>
-      </c>
-      <c r="O8" t="n">
-        <v>615101423.509997</v>
-      </c>
-      <c r="P8" t="n">
-        <v>237444237.194902</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>14804804.485585</v>
-      </c>
-      <c r="R8" t="n">
-        <v>45890054.167417</v>
-      </c>
-      <c r="S8" t="n">
-        <v>761932.687853842</v>
-      </c>
-      <c r="T8" t="n">
-        <v>12720592.9182812</v>
-      </c>
-      <c r="U8" t="n">
-        <v>76935482.3662637</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1194611.4752035</v>
-      </c>
-      <c r="W8" t="n">
-        <v>37956714.7683722</v>
-      </c>
-      <c r="X8" t="n">
-        <v>472073.381301108</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>3194096.52306248</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2713424.17872669</v>
-      </c>
-      <c r="C9" t="n">
-        <v>13996969.5405164</v>
-      </c>
-      <c r="D9" t="n">
-        <v>65443.9575829175</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>1999023.16660834</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>51677174.0960947</v>
-      </c>
-      <c r="J9" t="n">
-        <v>13084735.0349352</v>
-      </c>
-      <c r="K9" t="n">
-        <v>431097570.216039</v>
-      </c>
-      <c r="L9" t="n">
-        <v>67025455.5333819</v>
-      </c>
-      <c r="M9" t="n">
-        <v>74806388.6270373</v>
-      </c>
-      <c r="N9" t="n">
-        <v>203888859.568783</v>
-      </c>
-      <c r="O9" t="n">
-        <v>634986429.7848229</v>
-      </c>
-      <c r="P9" t="n">
-        <v>173314032.260483</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>30204141.4124653</v>
-      </c>
-      <c r="R9" t="n">
-        <v>31852873.9958988</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1073786.55966829</v>
-      </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="n">
-        <v>108789111.517227</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1146543.17973351</v>
-      </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="n">
-        <v>1359518.29020318</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>4327406.8736109</v>
+        <v>5977183.14798001</v>
       </c>
     </row>
   </sheetData>
